--- a/BackTest/2020-01-22 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-22 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>604410.3601503226</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>653394.3601503226</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.13</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>653640.3601503226</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.131</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>653886.3601503226</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.15</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>654450.5723503225</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.151</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>688656.6544503225</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.269</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>2073541.654150323</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.296</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>3003670.337650322</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.4</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>2865613.654250322</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>3017574.804550322</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.3</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>3007750.251650322</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.31</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>2726534.655750322</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.3</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,15 @@
         <v>2726534.655750322</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +950,17 @@
         <v>2726787.155750322</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.14</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +993,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1030,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1063,15 @@
         <v>2724787.155750322</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1100,15 @@
         <v>2724671.920050322</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1141,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1178,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1211,15 @@
         <v>2709591.920050322</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1248,15 @@
         <v>2709591.920050322</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1285,15 @@
         <v>2700591.920050322</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1322,15 @@
         <v>2695857.433450322</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1363,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1400,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1437,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1474,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1511,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1548,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1585,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1622,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1659,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,14 +1692,16 @@
         <v>2326825.311350322</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1606,7 +1760,7 @@
         <v>2318560.163150322</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1793,7 @@
         <v>2006981.776450322</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1826,7 @@
         <v>2006981.776450322</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1859,7 @@
         <v>2007065.776450322</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1892,7 @@
         <v>1582921.063250322</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1925,7 @@
         <v>1627563.815250322</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1958,7 @@
         <v>1627650.815250322</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1991,7 @@
         <v>1627650.815250322</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2024,7 @@
         <v>1627650.815250322</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2057,7 @@
         <v>1627650.815250322</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2090,7 @@
         <v>1627650.815250322</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2123,7 @@
         <v>1605788.617250322</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2156,7 @@
         <v>1607619.577050322</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2189,7 @@
         <v>1660455.613050323</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2222,7 @@
         <v>1746654.300650323</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2255,7 @@
         <v>1909199.932750323</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2288,7 @@
         <v>1905647.760450323</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2321,7 @@
         <v>1836296.614650323</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2354,7 @@
         <v>1835307.037950322</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2387,7 @@
         <v>1694524.875850322</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2420,7 @@
         <v>1696809.104150322</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2453,7 @@
         <v>1847846.710750323</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2486,7 @@
         <v>1847846.710750323</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2552,7 @@
         <v>1849694.797950323</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2585,7 @@
         <v>1811102.203050323</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2618,7 @@
         <v>1810973.843350323</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2651,7 @@
         <v>1810875.021050323</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3916,14 +4070,10 @@
         <v>887626.4992503228</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="J107" t="n">
-        <v>5.885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
@@ -3953,19 +4103,11 @@
         <v>888626.4992503228</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>5.792</v>
-      </c>
-      <c r="J108" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3994,19 +4136,11 @@
         <v>888626.4992503228</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5.895</v>
-      </c>
-      <c r="J109" t="n">
-        <v>5.885</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4035,14 +4169,10 @@
         <v>940325.6970503228</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5.895</v>
-      </c>
-      <c r="J110" t="n">
-        <v>5.895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
@@ -4072,19 +4202,11 @@
         <v>940325.6970503228</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J111" t="n">
-        <v>5.895</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4113,19 +4235,11 @@
         <v>936925.6970503228</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5.895</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4154,19 +4268,11 @@
         <v>934016.3442503228</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>5.895</v>
-      </c>
-      <c r="J113" t="n">
-        <v>5.895</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4195,19 +4301,11 @@
         <v>903384.7381503228</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5.859</v>
-      </c>
-      <c r="J114" t="n">
-        <v>5.895</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4236,19 +4334,11 @@
         <v>904212.7381503228</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5.758</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5.895</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4277,25 +4367,17 @@
         <v>928970.4888503228</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>5.857</v>
-      </c>
-      <c r="J116" t="n">
-        <v>5.895</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-22 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>604410.3601503226</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>653394.3601503226</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>653640.3601503226</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>653886.3601503226</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>654450.5723503225</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>688656.6544503225</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>2073541.654150323</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>3003670.337650322</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>2865613.654250322</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>3017574.804550322</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>3007750.251650322</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>2726534.655750322</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -917,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -950,17 +880,11 @@
         <v>2726787.155750322</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -993,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1067,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1104,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1141,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1178,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1215,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1252,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1289,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1326,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1363,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1400,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1437,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1511,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1548,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1581,15 +1441,11 @@
         <v>2344567.929550322</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1618,15 +1474,11 @@
         <v>2344650.929550322</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1655,15 +1507,11 @@
         <v>2327433.873050322</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1692,16 +1540,14 @@
         <v>2326825.311350322</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
       <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1760,7 +1606,7 @@
         <v>2318560.163150322</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1793,7 +1639,7 @@
         <v>2006981.776450322</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1958,7 +1804,7 @@
         <v>1627650.815250322</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1991,7 +1837,7 @@
         <v>1627650.815250322</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2024,7 +1870,7 @@
         <v>1627650.815250322</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2057,7 +1903,7 @@
         <v>1627650.815250322</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2090,7 +1936,7 @@
         <v>1627650.815250322</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2123,7 +1969,7 @@
         <v>1605788.617250322</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2156,7 +2002,7 @@
         <v>1607619.577050322</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2189,7 +2035,7 @@
         <v>1660455.613050323</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2222,7 +2068,7 @@
         <v>1746654.300650323</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2255,7 +2101,7 @@
         <v>1909199.932750323</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2288,7 +2134,7 @@
         <v>1905647.760450323</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2321,7 +2167,7 @@
         <v>1836296.614650323</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2354,7 +2200,7 @@
         <v>1835307.037950322</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2387,7 +2233,7 @@
         <v>1694524.875850322</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2420,7 +2266,7 @@
         <v>1696809.104150322</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2453,7 +2299,7 @@
         <v>1847846.710750323</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2486,7 +2332,7 @@
         <v>1847846.710750323</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2552,7 +2398,7 @@
         <v>1849694.797950323</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2585,7 +2431,7 @@
         <v>1811102.203050323</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2618,7 +2464,7 @@
         <v>1810973.843350323</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2651,7 +2497,7 @@
         <v>1810875.021050323</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3509,11 +3355,17 @@
         <v>902540.4180503229</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.77</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3546,7 +3398,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3579,7 +3435,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3612,7 +3472,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3645,7 +3509,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3678,7 +3546,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3711,7 +3583,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3744,7 +3620,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3777,7 +3657,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3810,7 +3694,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3843,7 +3731,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3876,7 +3768,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3905,11 +3801,17 @@
         <v>843326.4965503229</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5.867</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3938,11 +3840,17 @@
         <v>843426.4965503229</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>5.773</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3971,11 +3879,17 @@
         <v>884921.4158503228</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5.848</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4008,7 +3922,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4041,7 +3959,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4074,7 +3996,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4107,7 +4033,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4140,7 +4070,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4173,7 +4107,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4206,7 +4144,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4239,7 +4181,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4272,7 +4218,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4301,11 +4251,17 @@
         <v>903384.7381503228</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5.859</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4334,11 +4290,17 @@
         <v>904212.7381503228</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5.758</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4367,17 +4329,23 @@
         <v>928970.4888503228</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>5.857</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-22 BackTest BZNT.xlsx
@@ -451,7 +451,7 @@
         <v>604410.3601503226</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>653394.3601503226</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.13</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>653640.3601503226</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.131</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>653886.3601503226</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.15</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>654450.5723503225</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.151</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +644,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +681,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +718,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +751,15 @@
         <v>2865613.654250322</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +788,15 @@
         <v>3017574.804550322</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +825,15 @@
         <v>3007750.251650322</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +862,15 @@
         <v>2726534.655750322</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,14 +899,16 @@
         <v>2726534.655750322</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1045,7 +1099,7 @@
         <v>2709671.920050322</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1441,7 +1495,7 @@
         <v>2344567.929550322</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1528,7 @@
         <v>2344650.929550322</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1561,7 @@
         <v>2327433.873050322</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1672,7 +1726,7 @@
         <v>2006981.776450322</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1759,7 @@
         <v>2007065.776450322</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1792,7 @@
         <v>1582921.063250322</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1825,7 @@
         <v>1627563.815250322</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -3355,17 +3409,11 @@
         <v>902540.4180503229</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3398,11 +3446,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3435,11 +3479,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3472,11 +3512,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3509,11 +3545,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3546,11 +3578,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3583,11 +3611,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3620,11 +3644,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3657,11 +3677,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3694,11 +3710,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3731,11 +3743,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3768,11 +3776,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3801,17 +3805,11 @@
         <v>843326.4965503229</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5.867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3840,17 +3838,11 @@
         <v>843426.4965503229</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>5.773</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3879,17 +3871,11 @@
         <v>884921.4158503228</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5.848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3922,11 +3908,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3959,11 +3941,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3996,11 +3974,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +4007,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4070,11 +4040,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4107,11 +4073,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4144,11 +4106,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4181,11 +4139,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +4172,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4251,17 +4201,11 @@
         <v>903384.7381503228</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5.859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4290,17 +4234,11 @@
         <v>904212.7381503228</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5.758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4329,17 +4267,11 @@
         <v>928970.4888503228</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>5.857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-22 BackTest BZNT.xlsx
+++ b/BackTest/2020-01-22 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2420.5754</v>
       </c>
       <c r="G2" t="n">
-        <v>604410.3601503226</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>48984</v>
       </c>
       <c r="G3" t="n">
-        <v>653394.3601503226</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>246</v>
       </c>
       <c r="G4" t="n">
-        <v>653640.3601503226</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>246</v>
       </c>
       <c r="G5" t="n">
-        <v>653886.3601503226</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +563,15 @@
         <v>564.2122000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>654450.5723503225</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,22 +593,15 @@
         <v>34206.0821</v>
       </c>
       <c r="G7" t="n">
-        <v>688656.6544503225</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,22 +623,15 @@
         <v>1384884.9997</v>
       </c>
       <c r="G8" t="n">
-        <v>2073541.654150323</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -711,22 +653,15 @@
         <v>930128.6835</v>
       </c>
       <c r="G9" t="n">
-        <v>3003670.337650322</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,22 +683,15 @@
         <v>138056.6834</v>
       </c>
       <c r="G10" t="n">
-        <v>2865613.654250322</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,22 +713,15 @@
         <v>151961.1503</v>
       </c>
       <c r="G11" t="n">
-        <v>3017574.804550322</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -822,22 +743,15 @@
         <v>9824.552900000001</v>
       </c>
       <c r="G12" t="n">
-        <v>3007750.251650322</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -859,22 +773,15 @@
         <v>281215.5959</v>
       </c>
       <c r="G13" t="n">
-        <v>2726534.655750322</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -896,20 +803,15 @@
         <v>29047.7983</v>
       </c>
       <c r="G14" t="n">
-        <v>2726534.655750322</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K14" t="n">
+        <v>1</v>
       </c>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -931,18 +833,15 @@
         <v>252.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2726787.155750322</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -964,18 +863,15 @@
         <v>9000</v>
       </c>
       <c r="G16" t="n">
-        <v>2717787.155750322</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -997,18 +893,15 @@
         <v>7080</v>
       </c>
       <c r="G17" t="n">
-        <v>2724867.155750322</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1030,18 +923,15 @@
         <v>80</v>
       </c>
       <c r="G18" t="n">
-        <v>2724787.155750322</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1063,18 +953,15 @@
         <v>115.2357</v>
       </c>
       <c r="G19" t="n">
-        <v>2724671.920050322</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1096,18 +983,15 @@
         <v>15000</v>
       </c>
       <c r="G20" t="n">
-        <v>2709671.920050322</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1129,18 +1013,15 @@
         <v>80</v>
       </c>
       <c r="G21" t="n">
-        <v>2709751.920050322</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,18 +1043,15 @@
         <v>160</v>
       </c>
       <c r="G22" t="n">
-        <v>2709591.920050322</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1195,18 +1073,15 @@
         <v>5386.7257</v>
       </c>
       <c r="G23" t="n">
-        <v>2709591.920050322</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1228,18 +1103,15 @@
         <v>9000</v>
       </c>
       <c r="G24" t="n">
-        <v>2700591.920050322</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1261,18 +1133,15 @@
         <v>4734.4866</v>
       </c>
       <c r="G25" t="n">
-        <v>2695857.433450322</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1294,18 +1163,15 @@
         <v>9657.787700000001</v>
       </c>
       <c r="G26" t="n">
-        <v>2686199.645750322</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1327,18 +1193,15 @@
         <v>428066.1077</v>
       </c>
       <c r="G27" t="n">
-        <v>2258133.538050322</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1360,18 +1223,15 @@
         <v>10000</v>
       </c>
       <c r="G28" t="n">
-        <v>2268133.538050322</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,18 +1253,15 @@
         <v>57434.3915</v>
       </c>
       <c r="G29" t="n">
-        <v>2325567.929550322</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1426,18 +1283,15 @@
         <v>52707.274</v>
       </c>
       <c r="G30" t="n">
-        <v>2325567.929550322</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1459,18 +1313,15 @@
         <v>10000</v>
       </c>
       <c r="G31" t="n">
-        <v>2335567.929550322</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1492,18 +1343,15 @@
         <v>9000</v>
       </c>
       <c r="G32" t="n">
-        <v>2344567.929550322</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1525,18 +1373,15 @@
         <v>83</v>
       </c>
       <c r="G33" t="n">
-        <v>2344650.929550322</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1558,18 +1403,15 @@
         <v>17217.0565</v>
       </c>
       <c r="G34" t="n">
-        <v>2327433.873050322</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1591,18 +1433,15 @@
         <v>608.5617</v>
       </c>
       <c r="G35" t="n">
-        <v>2326825.311350322</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1624,18 +1463,15 @@
         <v>233.1972</v>
       </c>
       <c r="G36" t="n">
-        <v>2326592.114150322</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1657,18 +1493,15 @@
         <v>8031.951</v>
       </c>
       <c r="G37" t="n">
-        <v>2318560.163150322</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1690,18 +1523,15 @@
         <v>311578.3867</v>
       </c>
       <c r="G38" t="n">
-        <v>2006981.776450322</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1723,18 +1553,21 @@
         <v>190000</v>
       </c>
       <c r="G39" t="n">
-        <v>2006981.776450322</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5.83</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1756,18 +1589,21 @@
         <v>84</v>
       </c>
       <c r="G40" t="n">
-        <v>2007065.776450322</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.83</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1789,18 +1625,19 @@
         <v>424144.7132</v>
       </c>
       <c r="G41" t="n">
-        <v>1582921.063250322</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1822,18 +1659,19 @@
         <v>44642.752</v>
       </c>
       <c r="G42" t="n">
-        <v>1627563.815250322</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1855,18 +1693,19 @@
         <v>87</v>
       </c>
       <c r="G43" t="n">
-        <v>1627650.815250322</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1888,18 +1727,19 @@
         <v>10000</v>
       </c>
       <c r="G44" t="n">
-        <v>1627650.815250322</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1921,18 +1761,19 @@
         <v>30000</v>
       </c>
       <c r="G45" t="n">
-        <v>1627650.815250322</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1954,18 +1795,19 @@
         <v>6579.6642</v>
       </c>
       <c r="G46" t="n">
-        <v>1627650.815250322</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1987,18 +1829,19 @@
         <v>8814.880499999999</v>
       </c>
       <c r="G47" t="n">
-        <v>1627650.815250322</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2020,18 +1863,19 @@
         <v>21862.198</v>
       </c>
       <c r="G48" t="n">
-        <v>1605788.617250322</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2053,18 +1897,21 @@
         <v>1830.9598</v>
       </c>
       <c r="G49" t="n">
-        <v>1607619.577050322</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>5.751</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2086,18 +1933,21 @@
         <v>52836.036</v>
       </c>
       <c r="G50" t="n">
-        <v>1660455.613050323</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>5.752</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2119,18 +1969,21 @@
         <v>86198.6876</v>
       </c>
       <c r="G51" t="n">
-        <v>1746654.300650323</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>5.845</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2152,18 +2005,19 @@
         <v>162545.6321</v>
       </c>
       <c r="G52" t="n">
-        <v>1909199.932750323</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2185,18 +2039,19 @@
         <v>3552.1723</v>
       </c>
       <c r="G53" t="n">
-        <v>1905647.760450323</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2218,18 +2073,19 @@
         <v>69351.1458</v>
       </c>
       <c r="G54" t="n">
-        <v>1836296.614650323</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2251,18 +2107,19 @@
         <v>989.5767</v>
       </c>
       <c r="G55" t="n">
-        <v>1835307.037950322</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2284,18 +2141,19 @@
         <v>140782.1621</v>
       </c>
       <c r="G56" t="n">
-        <v>1694524.875850322</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2317,18 +2175,21 @@
         <v>2284.2283</v>
       </c>
       <c r="G57" t="n">
-        <v>1696809.104150322</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>5.61</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2350,18 +2211,21 @@
         <v>151037.6066</v>
       </c>
       <c r="G58" t="n">
-        <v>1847846.710750323</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>5.73</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2383,18 +2247,21 @@
         <v>6903.0355</v>
       </c>
       <c r="G59" t="n">
-        <v>1847846.710750323</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>5.786</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2416,18 +2283,19 @@
         <v>90</v>
       </c>
       <c r="G60" t="n">
-        <v>1847936.710750323</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2449,18 +2317,21 @@
         <v>1758.0872</v>
       </c>
       <c r="G61" t="n">
-        <v>1849694.797950323</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>5.79</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2482,18 +2353,19 @@
         <v>38592.5949</v>
       </c>
       <c r="G62" t="n">
-        <v>1811102.203050323</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2515,18 +2387,19 @@
         <v>128.3597</v>
       </c>
       <c r="G63" t="n">
-        <v>1810973.843350323</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2548,18 +2421,19 @@
         <v>98.8223</v>
       </c>
       <c r="G64" t="n">
-        <v>1810875.021050323</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2581,18 +2455,21 @@
         <v>5238.3699</v>
       </c>
       <c r="G65" t="n">
-        <v>1816113.390950323</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>5.803</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2614,18 +2491,19 @@
         <v>85</v>
       </c>
       <c r="G66" t="n">
-        <v>1816028.390950323</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2647,18 +2525,19 @@
         <v>6020.7078</v>
       </c>
       <c r="G67" t="n">
-        <v>1810007.683150323</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2680,18 +2559,19 @@
         <v>465063.7435</v>
       </c>
       <c r="G68" t="n">
-        <v>1344943.939650323</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2713,18 +2593,19 @@
         <v>59982.0634</v>
       </c>
       <c r="G69" t="n">
-        <v>1344943.939650323</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2746,18 +2627,19 @@
         <v>16207.1526</v>
       </c>
       <c r="G70" t="n">
-        <v>1361151.092250323</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2779,18 +2661,19 @@
         <v>889</v>
       </c>
       <c r="G71" t="n">
-        <v>1362040.092250323</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2812,18 +2695,19 @@
         <v>1536.0872</v>
       </c>
       <c r="G72" t="n">
-        <v>1360504.005050323</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2845,18 +2729,21 @@
         <v>87</v>
       </c>
       <c r="G73" t="n">
-        <v>1360591.005050323</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>5.644</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2878,18 +2765,19 @@
         <v>131190.0328</v>
       </c>
       <c r="G74" t="n">
-        <v>1229400.972250323</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2911,18 +2799,19 @@
         <v>11900</v>
       </c>
       <c r="G75" t="n">
-        <v>1241300.972250323</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2944,18 +2833,19 @@
         <v>4582.9759</v>
       </c>
       <c r="G76" t="n">
-        <v>1236717.996350323</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2977,18 +2867,19 @@
         <v>3622</v>
       </c>
       <c r="G77" t="n">
-        <v>1240339.996350323</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3010,18 +2901,19 @@
         <v>203049.8983</v>
       </c>
       <c r="G78" t="n">
-        <v>1037290.098050323</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3043,18 +2935,19 @@
         <v>8000</v>
       </c>
       <c r="G79" t="n">
-        <v>1029290.098050323</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3076,18 +2969,19 @@
         <v>8980.593500000001</v>
       </c>
       <c r="G80" t="n">
-        <v>1038270.691550323</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3109,18 +3003,19 @@
         <v>41841.7446</v>
       </c>
       <c r="G81" t="n">
-        <v>996428.9469503228</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3142,18 +3037,19 @@
         <v>37229.9649</v>
       </c>
       <c r="G82" t="n">
-        <v>1033658.911850323</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3175,18 +3071,19 @@
         <v>61277.5382</v>
       </c>
       <c r="G83" t="n">
-        <v>972381.3736503229</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3208,18 +3105,19 @@
         <v>988</v>
       </c>
       <c r="G84" t="n">
-        <v>973369.3736503229</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3241,18 +3139,19 @@
         <v>2242.7274</v>
       </c>
       <c r="G85" t="n">
-        <v>971126.6462503229</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3274,18 +3173,19 @@
         <v>10000</v>
       </c>
       <c r="G86" t="n">
-        <v>961126.6462503229</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3307,18 +3207,19 @@
         <v>48516.3647</v>
       </c>
       <c r="G87" t="n">
-        <v>912610.2815503229</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3340,18 +3241,19 @@
         <v>90</v>
       </c>
       <c r="G88" t="n">
-        <v>912700.2815503229</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3373,18 +3275,19 @@
         <v>15926.3622</v>
       </c>
       <c r="G89" t="n">
-        <v>928626.6437503229</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3406,18 +3309,19 @@
         <v>26086.2257</v>
       </c>
       <c r="G90" t="n">
-        <v>902540.4180503229</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3439,18 +3343,19 @@
         <v>20363.1226</v>
       </c>
       <c r="G91" t="n">
-        <v>922903.5406503229</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3472,18 +3377,19 @@
         <v>32018.4486</v>
       </c>
       <c r="G92" t="n">
-        <v>922903.5406503229</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3505,18 +3411,19 @@
         <v>610</v>
       </c>
       <c r="G93" t="n">
-        <v>923513.5406503229</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3538,18 +3445,19 @@
         <v>2000</v>
       </c>
       <c r="G94" t="n">
-        <v>925513.5406503229</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3571,18 +3479,19 @@
         <v>980</v>
       </c>
       <c r="G95" t="n">
-        <v>926493.5406503229</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3604,18 +3513,19 @@
         <v>20</v>
       </c>
       <c r="G96" t="n">
-        <v>926493.5406503229</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3637,18 +3547,19 @@
         <v>2200</v>
       </c>
       <c r="G97" t="n">
-        <v>924293.5406503229</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3670,18 +3581,19 @@
         <v>77012.3086</v>
       </c>
       <c r="G98" t="n">
-        <v>847281.2320503229</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3703,18 +3615,19 @@
         <v>173</v>
       </c>
       <c r="G99" t="n">
-        <v>847454.2320503229</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3736,18 +3649,19 @@
         <v>3573.0692</v>
       </c>
       <c r="G100" t="n">
-        <v>843881.1628503229</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3769,18 +3683,19 @@
         <v>3000</v>
       </c>
       <c r="G101" t="n">
-        <v>846881.1628503229</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3802,18 +3717,19 @@
         <v>3554.6663</v>
       </c>
       <c r="G102" t="n">
-        <v>843326.4965503229</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3835,18 +3751,19 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>843426.4965503229</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3868,18 +3785,19 @@
         <v>41494.9193</v>
       </c>
       <c r="G104" t="n">
-        <v>884921.4158503228</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3901,18 +3819,19 @@
         <v>3386.4136</v>
       </c>
       <c r="G105" t="n">
-        <v>888307.8294503228</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3934,18 +3853,19 @@
         <v>6435.1998</v>
       </c>
       <c r="G106" t="n">
-        <v>888307.8294503228</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3967,18 +3887,19 @@
         <v>681.3302</v>
       </c>
       <c r="G107" t="n">
-        <v>887626.4992503228</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4000,18 +3921,19 @@
         <v>1000</v>
       </c>
       <c r="G108" t="n">
-        <v>888626.4992503228</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4033,18 +3955,19 @@
         <v>4836.4836</v>
       </c>
       <c r="G109" t="n">
-        <v>888626.4992503228</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4066,18 +3989,19 @@
         <v>51699.1978</v>
       </c>
       <c r="G110" t="n">
-        <v>940325.6970503228</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4099,18 +4023,19 @@
         <v>6229.2911</v>
       </c>
       <c r="G111" t="n">
-        <v>940325.6970503228</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4132,18 +4057,19 @@
         <v>3400</v>
       </c>
       <c r="G112" t="n">
-        <v>936925.6970503228</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4165,18 +4091,19 @@
         <v>2909.3528</v>
       </c>
       <c r="G113" t="n">
-        <v>934016.3442503228</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4198,18 +4125,19 @@
         <v>30631.6061</v>
       </c>
       <c r="G114" t="n">
-        <v>903384.7381503228</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4231,18 +4159,19 @@
         <v>828</v>
       </c>
       <c r="G115" t="n">
-        <v>904212.7381503228</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4264,18 +4193,19 @@
         <v>24757.7507</v>
       </c>
       <c r="G116" t="n">
-        <v>928970.4888503228</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
